--- a/data/landings/cdfw/public/fish_bulletins/raw/fb125/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb125/raw/Table18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb125/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8C3FA5-6F2F-7F41-B9E4-5AAB0C528735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7E29C5-D292-C348-841B-6496A1BB0541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22260" yWindow="680" windowWidth="19580" windowHeight="23100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Value</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -487,8 +487,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1181675</v>
